--- a/price1/PRICE_RECORDINGS_NEW1.xlsx
+++ b/price1/PRICE_RECORDINGS_NEW1.xlsx
@@ -1,32 +1,14 @@
-
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
-  </bookViews>
-  <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-  </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
-</workbook>
-</file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +19,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +27,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -417,115 +390,4 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
-</file>
-
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>identifier</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>time_stamp</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>cutting discs, 4"ø, "tyrolit" brand, 15,300 rated rpm</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Consumables</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>https://vertexpowertools.com/products/tyrolit-cutting-disc-4-for-metal-standard</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>class</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>200</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2024-07-14 11:34:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>cutting discs, 4"ø, "tyrolit" brand, 15,300 rated rpm</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Consumables</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>https://vertexpowertools.com/products/tyrolit-cutting-disc-4-for-metal-standard</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>class</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>220</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2024-07-14 11:35:27</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/price1/PRICE_RECORDINGS_NEW1.xlsx
+++ b/price1/PRICE_RECORDINGS_NEW1.xlsx
@@ -1,14 +1,32 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
+  <sheets>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
+</file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -19,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -27,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -390,4 +417,115 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>classs</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>time_stamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>cutting discs, 4"ø, "tyrolit" brand, 15,300 rated rpm</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Consumables</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://vertexpowertools.com/products/tyrolit-cutting-disc-4-for-metal-basic</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>current-price theme-money</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>68</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2024-07-19 23:05:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>cutting discs, 4"ø, "tyrolit" brand, 15,300 rated rpm</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Consumables</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://vertexpowertools.com/products/tyrolit-cutting-disc-4-for-metal-basic</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>current-price theme-money</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>68</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2024-07-19 23:10:54</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/price1/PRICE_RECORDINGS_NEW1.xlsx
+++ b/price1/PRICE_RECORDINGS_NEW1.xlsx
@@ -1,32 +1,14 @@
-
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
-  </bookViews>
-  <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-  </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
-</workbook>
-</file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +19,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +27,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -417,115 +390,4 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
-</file>
-
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>classs</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>time_stamp</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>cutting discs, 4"ø, "tyrolit" brand, 15,300 rated rpm</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Consumables</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>https://vertexpowertools.com/products/tyrolit-cutting-disc-4-for-metal-basic</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>current-price theme-money</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>68</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2024-07-19 23:05:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>cutting discs, 4"ø, "tyrolit" brand, 15,300 rated rpm</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Consumables</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>https://vertexpowertools.com/products/tyrolit-cutting-disc-4-for-metal-basic</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>current-price theme-money</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>68</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2024-07-19 23:10:54</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/price1/PRICE_RECORDINGS_NEW1.xlsx
+++ b/price1/PRICE_RECORDINGS_NEW1.xlsx
@@ -1,14 +1,32 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
+  <sheets>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
+</file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -19,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -27,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -390,4 +417,235 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>classs</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>time_stamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>cutting discs, 4"ø, "tyrolit" brand, 15,300 rated rpm</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Consumables</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://vertexpowertools.com/products/tyrolit-cutting-disc-4-for-metal-basic</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>current-price theme-money</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>68</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2024-07-20 19:18:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>cutting discs, 4"ø, "tyrolit" brand, 15,300 rated rpm</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Consumables</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://vertexpowertools.com/products/tyrolit-cutting-disc-4-for-metal-basic</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>current-price theme-money</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>68</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2024-07-20 19:19:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>cutting discs, 4"ø, "tyrolit" brand, 15,300 rated rpm</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Consumables</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://vertexpowertools.com/products/tyrolit-cutting-disc-4-for-metal-basic</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>current-price theme-money</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>68</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2024-07-20 21:52:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>cutting discs, 4"ø, "tyrolit" brand, 15,300 rated rpm</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Consumables</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://vertexpowertools.com/products/tyrolit-cutting-disc-4-for-metal-basic</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>current-price theme-money</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>68</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2024-07-20 22:46:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>cutting discs, 4"ø, "tyrolit" brand, 15,300 rated rpm</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Consumables</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://vertexpowertools.com/products/tyrolit-cutting-disc-4-for-metal-basic</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>current-price theme-money1</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2024-07-20 23:37:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>cutting discs, 4"ø, "tyrolit" brand, 15,300 rated rpm</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Consumables</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://vertexpowertools.com/products/tyrolit-cutting-disc-4-for-metal-basic</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>current-price theme-money</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>68</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2024-07-20 23:39:52</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/price1/PRICE_RECORDINGS_NEW1.xlsx
+++ b/price1/PRICE_RECORDINGS_NEW1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-07-20 19:18:41</t>
+          <t>2024-07-24 22:17:17</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024-07-20 19:19:06</t>
+          <t>2024-07-24 22:17:36</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024-07-20 21:52:37</t>
+          <t>2024-07-24 22:17:51</t>
         </is>
       </c>
     </row>
@@ -581,67 +581,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2024-07-20 22:46:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>cutting discs, 4"ø, "tyrolit" brand, 15,300 rated rpm</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Consumables</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>https://vertexpowertools.com/products/tyrolit-cutting-disc-4-for-metal-basic</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>current-price theme-money1</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2024-07-20 23:37:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>cutting discs, 4"ø, "tyrolit" brand, 15,300 rated rpm</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Consumables</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>https://vertexpowertools.com/products/tyrolit-cutting-disc-4-for-metal-basic</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>current-price theme-money</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>68</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2024-07-20 23:39:52</t>
+          <t>2024-07-24 22:18:08</t>
         </is>
       </c>
     </row>

--- a/price1/PRICE_RECORDINGS_NEW1.xlsx
+++ b/price1/PRICE_RECORDINGS_NEW1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -585,6 +585,66 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>cutting discs, 4"ø, "tyrolit" brand, 15,300 rated rpm</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Consumables</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://vertexpowertools.com/products/tyrolit-cutting-disc-4-for-metal-basic</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>current-price theme-money</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>68</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2024-07-26 22:43:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>cutting discs, 4"ø, "tyrolit" brand, 15,300 rated rpm</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Consumables</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://vertexpowertools.com/products/tyrolit-cutting-disc-4-for-metal-basic</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>current-price theme-money</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>68</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2024-07-26 22:45:16</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
